--- a/targets_of_conservedMiRNAinRice/processed/Literally_target.xlsx
+++ b/targets_of_conservedMiRNAinRice/processed/Literally_target.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Thomas/GitHub/File-transfer/targets_of_conservedMiRNAinRice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Thomas/GitHub/File-transfer/targets_of_conservedMiRNAinRice/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2600" yWindow="540" windowWidth="25640" windowHeight="16060" tabRatio="760"/>
+    <workbookView xWindow="-33140" yWindow="2200" windowWidth="25640" windowHeight="16060" tabRatio="760"/>
   </bookViews>
   <sheets>
-    <sheet name="conserved_miRNA" sheetId="1" r:id="rId1"/>
+    <sheet name="conservedtargets_miRNA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -1388,8 +1391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
